--- a/data/outputs/management_elsevier/22.xlsx
+++ b/data/outputs/management_elsevier/22.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS19"/>
+  <dimension ref="A1:BU19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -939,6 +949,12 @@
           <t>2-s2.0-84950112030</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>625</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1156,6 +1172,12 @@
           <t>2-s2.0-84950269354</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>4672</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1357,6 +1379,12 @@
           <t>2-s2.0-84953296613</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>794</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1558,6 +1586,12 @@
           <t>2-s2.0-84953865071</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>656</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1759,6 +1793,12 @@
           <t>2-s2.0-84959319589</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1717</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1976,6 +2016,12 @@
           <t>2-s2.0-84942522492</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>925</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2173,6 +2219,12 @@
           <t>2-s2.0-84943426572</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>613</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2378,6 +2430,12 @@
           <t>2-s2.0-84943399026</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>492</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2595,6 +2653,12 @@
           <t>2-s2.0-84943633648</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>535</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2796,6 +2860,12 @@
           <t>2-s2.0-84944314471</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>537</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2999,6 +3069,12 @@
           <t>2-s2.0-84947038829</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>3299</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3208,6 +3284,12 @@
           <t>2-s2.0-84955596421</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>781</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3417,6 +3499,12 @@
           <t>2-s2.0-84941934650</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1079</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3618,6 +3706,12 @@
           <t>2-s2.0-84941938011</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>387</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3835,6 +3929,12 @@
           <t>2-s2.0-84926432489</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1762</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4038,6 +4138,12 @@
           <t>2-s2.0-84928954549</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>1366</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4247,6 +4353,12 @@
           <t>2-s2.0-84955713675</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>643</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4456,6 +4568,12 @@
           <t>2-s2.0-84924992076</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1053</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
